--- a/Cluster_analysis/graph/frequency_analysis_day6_behavior/behavior_Exp/segments_info.xlsx
+++ b/Cluster_analysis/graph/frequency_analysis_day6_behavior/behavior_Exp/segments_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,108 +455,97 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
       <c r="C2" t="n">
-        <v>2998</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>467</v>
       </c>
       <c r="B3" t="n">
-        <v>233</v>
+        <v>653</v>
       </c>
       <c r="C3" t="n">
-        <v>232</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>467</v>
+        <v>672</v>
       </c>
       <c r="B4" t="n">
-        <v>653</v>
+        <v>842</v>
       </c>
       <c r="C4" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>672</v>
+        <v>947</v>
       </c>
       <c r="B5" t="n">
-        <v>842</v>
+        <v>1112</v>
       </c>
       <c r="C5" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>947</v>
+        <v>1114</v>
       </c>
       <c r="B6" t="n">
-        <v>1112</v>
+        <v>1349</v>
       </c>
       <c r="C6" t="n">
-        <v>165</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1114</v>
+        <v>1365</v>
       </c>
       <c r="B7" t="n">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="C7" t="n">
-        <v>235</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1365</v>
+        <v>1451</v>
       </c>
       <c r="B8" t="n">
-        <v>1435</v>
+        <v>1556</v>
       </c>
       <c r="C8" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1451</v>
+        <v>1692</v>
       </c>
       <c r="B9" t="n">
-        <v>1556</v>
+        <v>1960</v>
       </c>
       <c r="C9" t="n">
-        <v>105</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1692</v>
+        <v>1982</v>
       </c>
       <c r="B10" t="n">
-        <v>1960</v>
+        <v>2999</v>
       </c>
       <c r="C10" t="n">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>1982</v>
-      </c>
-      <c r="B11" t="n">
-        <v>2999</v>
-      </c>
-      <c r="C11" t="n">
         <v>1017</v>
       </c>
     </row>
